--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEC\Desktop\myProject\ALTDOT\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7784046-86E9-4889-AD6E-835FFA3362F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477A31BE-DB0B-4967-9A7D-12FEBE159833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{591114C3-31EB-7C48-B14E-D60E82B9FC47}"/>
   </bookViews>
@@ -9737,8 +9737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7606E1-C2F5-BF4A-AE2D-FDEB359220AF}">
   <dimension ref="A1:H3680"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="E312" sqref="E312"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
